--- a/Code/Results/Cases/Case_0_78/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_78/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.132693182429918</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.5986754929140687</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1487866681656769</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>7.124647210285303</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00275037324491976</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3777476464661333</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.43333536931146</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.135249261322258</v>
+      </c>
+      <c r="D3">
+        <v>0.6242738508861834</v>
+      </c>
+      <c r="E3">
+        <v>0.1304734265937597</v>
+      </c>
+      <c r="F3">
+        <v>7.234701763741327</v>
+      </c>
+      <c r="G3">
+        <v>0.00277517619763137</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.3278127161237592</v>
+      </c>
+      <c r="M3">
+        <v>11.30783069473102</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.1369803570121064</v>
+      </c>
+      <c r="D4">
+        <v>0.6415915664512966</v>
+      </c>
+      <c r="E4">
+        <v>0.1192883383847843</v>
+      </c>
+      <c r="F4">
+        <v>7.318286954878431</v>
+      </c>
+      <c r="G4">
+        <v>0.002790988899729716</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.2972550874868887</v>
+      </c>
+      <c r="M4">
+        <v>10.62145879606965</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.1377258613242844</v>
+      </c>
+      <c r="D5">
+        <v>0.6490397794515133</v>
+      </c>
+      <c r="E5">
+        <v>0.1147428886179043</v>
+      </c>
+      <c r="F5">
+        <v>7.356250634192349</v>
+      </c>
+      <c r="G5">
+        <v>0.002797581784131688</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.2848223460832457</v>
+      </c>
+      <c r="M5">
+        <v>10.34278559974143</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.1378520557914271</v>
+      </c>
+      <c r="D6">
+        <v>0.6502998521208951</v>
+      </c>
+      <c r="E6">
+        <v>0.1139888138805247</v>
+      </c>
+      <c r="F6">
+        <v>7.362786635338182</v>
+      </c>
+      <c r="G6">
+        <v>0.002798685597696026</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.2827589227773615</v>
+      </c>
+      <c r="M6">
+        <v>10.29657006690252</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.1369902496363551</v>
+      </c>
+      <c r="D7">
+        <v>0.6416904465805544</v>
+      </c>
+      <c r="E7">
+        <v>0.1192269889569602</v>
+      </c>
+      <c r="F7">
+        <v>7.318783306597538</v>
+      </c>
+      <c r="G7">
+        <v>0.002791077207190629</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.297087342936436</v>
+      </c>
+      <c r="M7">
+        <v>10.61769653744614</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.1335406023549695</v>
+      </c>
+      <c r="D8">
+        <v>0.6071627095500105</v>
+      </c>
+      <c r="E8">
+        <v>0.1424584716467479</v>
+      </c>
+      <c r="F8">
+        <v>7.159194211412142</v>
+      </c>
+      <c r="G8">
+        <v>0.002758805619676082</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.3605049717473889</v>
+      </c>
+      <c r="M8">
+        <v>12.04419271235565</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.1280874035783341</v>
+      </c>
+      <c r="D9">
+        <v>0.5526893355404638</v>
+      </c>
+      <c r="E9">
+        <v>0.1886042396589858</v>
+      </c>
+      <c r="F9">
+        <v>6.979211911336478</v>
+      </c>
+      <c r="G9">
+        <v>0.002700039790922983</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.4859852106308722</v>
+      </c>
+      <c r="M9">
+        <v>14.88631150613531</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.1249251398213289</v>
+      </c>
+      <c r="D10">
+        <v>0.5215342424525033</v>
+      </c>
+      <c r="E10">
+        <v>0.2230500983351078</v>
+      </c>
+      <c r="F10">
+        <v>6.9368333381978</v>
+      </c>
+      <c r="G10">
+        <v>0.00265945318330527</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.579328374754482</v>
+      </c>
+      <c r="M10">
+        <v>17.0133040593675</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.1236811257793278</v>
+      </c>
+      <c r="D11">
+        <v>0.5094787744026803</v>
+      </c>
+      <c r="E11">
+        <v>0.2388838933041058</v>
+      </c>
+      <c r="F11">
+        <v>6.939180155015606</v>
+      </c>
+      <c r="G11">
+        <v>0.002641511941904875</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.622159680307675</v>
+      </c>
+      <c r="M11">
+        <v>17.99223444862639</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.123239084364144</v>
+      </c>
+      <c r="D12">
+        <v>0.5052357519823261</v>
+      </c>
+      <c r="E12">
+        <v>0.2449075124921904</v>
+      </c>
+      <c r="F12">
+        <v>6.943370861971971</v>
+      </c>
+      <c r="G12">
+        <v>0.002634789610277836</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.6384424462986544</v>
+      </c>
+      <c r="M12">
+        <v>18.36482154434486</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.1233329761301718</v>
+      </c>
+      <c r="D13">
+        <v>0.5061349388670919</v>
+      </c>
+      <c r="E13">
+        <v>0.2436089167440656</v>
+      </c>
+      <c r="F13">
+        <v>6.942318228183581</v>
+      </c>
+      <c r="G13">
+        <v>0.002636234255932039</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.6349326616139024</v>
+      </c>
+      <c r="M13">
+        <v>18.28448998734348</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.1236441702489088</v>
+      </c>
+      <c r="D14">
+        <v>0.5091231360320023</v>
+      </c>
+      <c r="E14">
+        <v>0.2393788799863898</v>
+      </c>
+      <c r="F14">
+        <v>6.939457591702194</v>
+      </c>
+      <c r="G14">
+        <v>0.002640957476591</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.6234979378662899</v>
+      </c>
+      <c r="M14">
+        <v>18.02284804100856</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.1238386010739703</v>
+      </c>
+      <c r="D15">
+        <v>0.510995992809967</v>
+      </c>
+      <c r="E15">
+        <v>0.2367915964826182</v>
+      </c>
+      <c r="F15">
+        <v>6.938141366293337</v>
+      </c>
+      <c r="G15">
+        <v>0.002643859808123005</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.6165024322143893</v>
+      </c>
+      <c r="M15">
+        <v>17.86283856501325</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.1250104420652747</v>
+      </c>
+      <c r="D16">
+        <v>0.522366176067095</v>
+      </c>
+      <c r="E16">
+        <v>0.222018967755389</v>
+      </c>
+      <c r="F16">
+        <v>6.937131212029101</v>
+      </c>
+      <c r="G16">
+        <v>0.002660635899963015</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.5765375421954104</v>
+      </c>
+      <c r="M16">
+        <v>16.94957834687364</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.125779874800017</v>
+      </c>
+      <c r="D17">
+        <v>0.5298957916582765</v>
+      </c>
+      <c r="E17">
+        <v>0.2130012851171443</v>
+      </c>
+      <c r="F17">
+        <v>6.942182274700826</v>
+      </c>
+      <c r="G17">
+        <v>0.002671058789082519</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.5521220014393293</v>
+      </c>
+      <c r="M17">
+        <v>16.39240430064359</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.1262406706056396</v>
+      </c>
+      <c r="D18">
+        <v>0.5344247615452389</v>
+      </c>
+      <c r="E18">
+        <v>0.2078297404528655</v>
+      </c>
+      <c r="F18">
+        <v>6.947110570580548</v>
+      </c>
+      <c r="G18">
+        <v>0.002677103092619738</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.5381128836740459</v>
+      </c>
+      <c r="M18">
+        <v>16.07298429938055</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.1263997898316092</v>
+      </c>
+      <c r="D19">
+        <v>0.535991707480207</v>
+      </c>
+      <c r="E19">
+        <v>0.2060812344043228</v>
+      </c>
+      <c r="F19">
+        <v>6.949121056943227</v>
+      </c>
+      <c r="G19">
+        <v>0.002679158162784581</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.5333751845609527</v>
+      </c>
+      <c r="M19">
+        <v>15.96500741963501</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.1256960723699621</v>
+      </c>
+      <c r="D20">
+        <v>0.5290736216671235</v>
+      </c>
+      <c r="E20">
+        <v>0.2139596325299777</v>
+      </c>
+      <c r="F20">
+        <v>6.94143385733264</v>
+      </c>
+      <c r="G20">
+        <v>0.002669944172603417</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.5547174804682697</v>
+      </c>
+      <c r="M20">
+        <v>16.4516058000753</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.1235519677923804</v>
+      </c>
+      <c r="D21">
+        <v>0.5082365395168154</v>
+      </c>
+      <c r="E21">
+        <v>0.2406205578422487</v>
+      </c>
+      <c r="F21">
+        <v>6.940206602896239</v>
+      </c>
+      <c r="G21">
+        <v>0.00263956823656975</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.6268547826870758</v>
+      </c>
+      <c r="M21">
+        <v>18.09964524826552</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.1223205153356304</v>
+      </c>
+      <c r="D22">
+        <v>0.4965051778905831</v>
+      </c>
+      <c r="E22">
+        <v>0.2582086874304252</v>
+      </c>
+      <c r="F22">
+        <v>6.95875211907412</v>
+      </c>
+      <c r="G22">
+        <v>0.002620131535692386</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0.6743762479706561</v>
+      </c>
+      <c r="M22">
+        <v>19.18787133220883</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.1229618412214251</v>
+      </c>
+      <c r="D23">
+        <v>0.5025875397715538</v>
+      </c>
+      <c r="E23">
+        <v>0.2488051384646326</v>
+      </c>
+      <c r="F23">
+        <v>6.947015973240468</v>
+      </c>
+      <c r="G23">
+        <v>0.002630468422830048</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0.6489750808140116</v>
+      </c>
+      <c r="M23">
+        <v>18.60595496773357</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.1257339020949502</v>
+      </c>
+      <c r="D24">
+        <v>0.5294447027922047</v>
+      </c>
+      <c r="E24">
+        <v>0.2135263239717915</v>
+      </c>
+      <c r="F24">
+        <v>6.941765925711024</v>
+      </c>
+      <c r="G24">
+        <v>0.002670447928480073</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.5535439788897918</v>
+      </c>
+      <c r="M24">
+        <v>16.42483799676808</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.1294178994423447</v>
+      </c>
+      <c r="D25">
+        <v>0.5659300258434996</v>
+      </c>
+      <c r="E25">
+        <v>0.1760396143208851</v>
+      </c>
+      <c r="F25">
+        <v>7.012796199385548</v>
+      </c>
+      <c r="G25">
+        <v>0.002715470275439536</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.4518736680609834</v>
+      </c>
+      <c r="M25">
+        <v>14.11151396344366</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
